--- a/ai_powered_excel/2-ai-powered-data-entry-forecasting/ai-powered-data-entry-forecasting-solutions.xlsx
+++ b/ai_powered_excel/2-ai-powered-data-entry-forecasting/ai-powered-data-entry-forecasting-solutions.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\ai_powered_excel\2-ai-powered-data-entry-forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-2024-analytics-2_0\ai_powered_excel\2-ai-powered-data-entry-forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9DA1FF-1F1E-40A3-964A-F31F5447B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316BD344-B1B8-4A95-8494-240F5168499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-from-picture" sheetId="2" r:id="rId1"/>
     <sheet name="forecast-sheet" sheetId="3" r:id="rId2"/>
     <sheet name="linked-data-types" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3527,1566 +3524,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="data"/>
-      <sheetName val="forecast"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>housing_starts</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Forecast(housing_starts)</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Lower Confidence Bound(housing_starts)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Upper Confidence Bound(housing_starts)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>40909</v>
-          </cell>
-          <cell r="B2">
-            <v>723</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>40940</v>
-          </cell>
-          <cell r="B3">
-            <v>704</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>40969</v>
-          </cell>
-          <cell r="B4">
-            <v>695</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>41000</v>
-          </cell>
-          <cell r="B5">
-            <v>753</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>41030</v>
-          </cell>
-          <cell r="B6">
-            <v>708</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>41061</v>
-          </cell>
-          <cell r="B7">
-            <v>757</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>41091</v>
-          </cell>
-          <cell r="B8">
-            <v>740</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>41122</v>
-          </cell>
-          <cell r="B9">
-            <v>754</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>41153</v>
-          </cell>
-          <cell r="B10">
-            <v>847</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>41183</v>
-          </cell>
-          <cell r="B11">
-            <v>915</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>41214</v>
-          </cell>
-          <cell r="B12">
-            <v>833</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>41244</v>
-          </cell>
-          <cell r="B13">
-            <v>976</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>41275</v>
-          </cell>
-          <cell r="B14">
-            <v>888</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>41306</v>
-          </cell>
-          <cell r="B15">
-            <v>962</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>41334</v>
-          </cell>
-          <cell r="B16">
-            <v>1010</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>41365</v>
-          </cell>
-          <cell r="B17">
-            <v>835</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>41395</v>
-          </cell>
-          <cell r="B18">
-            <v>930</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>41426</v>
-          </cell>
-          <cell r="B19">
-            <v>839</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>41456</v>
-          </cell>
-          <cell r="B20">
-            <v>880</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>41487</v>
-          </cell>
-          <cell r="B21">
-            <v>917</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>41518</v>
-          </cell>
-          <cell r="B22">
-            <v>850</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>41548</v>
-          </cell>
-          <cell r="B23">
-            <v>925</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>41579</v>
-          </cell>
-          <cell r="B24">
-            <v>1100</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>41609</v>
-          </cell>
-          <cell r="B25">
-            <v>1002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>41640</v>
-          </cell>
-          <cell r="B26">
-            <v>888</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>41671</v>
-          </cell>
-          <cell r="B27">
-            <v>944</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>41699</v>
-          </cell>
-          <cell r="B28">
-            <v>970</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>41730</v>
-          </cell>
-          <cell r="B29">
-            <v>1043</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>41760</v>
-          </cell>
-          <cell r="B30">
-            <v>1007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>41791</v>
-          </cell>
-          <cell r="B31">
-            <v>911</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>41821</v>
-          </cell>
-          <cell r="B32">
-            <v>1085</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>41852</v>
-          </cell>
-          <cell r="B33">
-            <v>984</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>41883</v>
-          </cell>
-          <cell r="B34">
-            <v>1023</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>41913</v>
-          </cell>
-          <cell r="B35">
-            <v>1074</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>41944</v>
-          </cell>
-          <cell r="B36">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>41974</v>
-          </cell>
-          <cell r="B37">
-            <v>1073</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>42005</v>
-          </cell>
-          <cell r="B38">
-            <v>1085</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>42036</v>
-          </cell>
-          <cell r="B39">
-            <v>886</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>42064</v>
-          </cell>
-          <cell r="B40">
-            <v>960</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>42095</v>
-          </cell>
-          <cell r="B41">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>42125</v>
-          </cell>
-          <cell r="B42">
-            <v>1079</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42156</v>
-          </cell>
-          <cell r="B43">
-            <v>1205</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>42186</v>
-          </cell>
-          <cell r="B44">
-            <v>1146</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>42217</v>
-          </cell>
-          <cell r="B45">
-            <v>1130</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>42248</v>
-          </cell>
-          <cell r="B46">
-            <v>1224</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>42278</v>
-          </cell>
-          <cell r="B47">
-            <v>1058</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>42309</v>
-          </cell>
-          <cell r="B48">
-            <v>1172</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>42339</v>
-          </cell>
-          <cell r="B49">
-            <v>1146</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>42370</v>
-          </cell>
-          <cell r="B50">
-            <v>1092</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>42401</v>
-          </cell>
-          <cell r="B51">
-            <v>1225</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>42430</v>
-          </cell>
-          <cell r="B52">
-            <v>1111</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>42461</v>
-          </cell>
-          <cell r="B53">
-            <v>1163</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>42491</v>
-          </cell>
-          <cell r="B54">
-            <v>1148</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>42522</v>
-          </cell>
-          <cell r="B55">
-            <v>1203</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>42552</v>
-          </cell>
-          <cell r="B56">
-            <v>1239</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>42583</v>
-          </cell>
-          <cell r="B57">
-            <v>1171</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>42614</v>
-          </cell>
-          <cell r="B58">
-            <v>1068</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>42644</v>
-          </cell>
-          <cell r="B59">
-            <v>1313</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>42675</v>
-          </cell>
-          <cell r="B60">
-            <v>1140</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>42705</v>
-          </cell>
-          <cell r="B61">
-            <v>1252</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>42736</v>
-          </cell>
-          <cell r="B62">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>42767</v>
-          </cell>
-          <cell r="B63">
-            <v>1271</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>42795</v>
-          </cell>
-          <cell r="B64">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>42826</v>
-          </cell>
-          <cell r="B65">
-            <v>1146</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>42856</v>
-          </cell>
-          <cell r="B66">
-            <v>1157</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>42887</v>
-          </cell>
-          <cell r="B67">
-            <v>1249</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>42917</v>
-          </cell>
-          <cell r="B68">
-            <v>1206</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>42948</v>
-          </cell>
-          <cell r="B69">
-            <v>1159</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>42979</v>
-          </cell>
-          <cell r="B70">
-            <v>1181</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>43009</v>
-          </cell>
-          <cell r="B71">
-            <v>1257</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>43040</v>
-          </cell>
-          <cell r="B72">
-            <v>1273</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>43070</v>
-          </cell>
-          <cell r="B73">
-            <v>1177</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>43101</v>
-          </cell>
-          <cell r="B74">
-            <v>1299</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>43132</v>
-          </cell>
-          <cell r="B75">
-            <v>1277</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>43160</v>
-          </cell>
-          <cell r="B76">
-            <v>1318</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>43191</v>
-          </cell>
-          <cell r="B77">
-            <v>1276</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>43221</v>
-          </cell>
-          <cell r="B78">
-            <v>1357</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>43252</v>
-          </cell>
-          <cell r="B79">
-            <v>1192</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>43282</v>
-          </cell>
-          <cell r="B80">
-            <v>1208</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>43313</v>
-          </cell>
-          <cell r="B81">
-            <v>1288</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>43344</v>
-          </cell>
-          <cell r="B82">
-            <v>1250</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>43374</v>
-          </cell>
-          <cell r="B83">
-            <v>1221</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>43405</v>
-          </cell>
-          <cell r="B84">
-            <v>1181</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>43435</v>
-          </cell>
-          <cell r="B85">
-            <v>1095</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>43466</v>
-          </cell>
-          <cell r="B86">
-            <v>1232</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>43497</v>
-          </cell>
-          <cell r="B87">
-            <v>1128</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>43525</v>
-          </cell>
-          <cell r="B88">
-            <v>1195</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>43556</v>
-          </cell>
-          <cell r="B89">
-            <v>1267</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>43586</v>
-          </cell>
-          <cell r="B90">
-            <v>1307</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>43617</v>
-          </cell>
-          <cell r="B91">
-            <v>1228</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>43647</v>
-          </cell>
-          <cell r="B92">
-            <v>1245</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>43678</v>
-          </cell>
-          <cell r="B93">
-            <v>1367</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>43709</v>
-          </cell>
-          <cell r="B94">
-            <v>1300</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>43739</v>
-          </cell>
-          <cell r="B95">
-            <v>1332</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>43770</v>
-          </cell>
-          <cell r="B96">
-            <v>1346</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>43800</v>
-          </cell>
-          <cell r="B97">
-            <v>1551</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>43831</v>
-          </cell>
-          <cell r="B98">
-            <v>1572</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>43862</v>
-          </cell>
-          <cell r="B99">
-            <v>1565</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>43891</v>
-          </cell>
-          <cell r="B100">
-            <v>1267</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>43922</v>
-          </cell>
-          <cell r="B101">
-            <v>925</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>43952</v>
-          </cell>
-          <cell r="B102">
-            <v>1054</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>43983</v>
-          </cell>
-          <cell r="B103">
-            <v>1266</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>44013</v>
-          </cell>
-          <cell r="B104">
-            <v>1529</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>44044</v>
-          </cell>
-          <cell r="B105">
-            <v>1377</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>44075</v>
-          </cell>
-          <cell r="B106">
-            <v>1463</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>44105</v>
-          </cell>
-          <cell r="B107">
-            <v>1537</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>44136</v>
-          </cell>
-          <cell r="B108">
-            <v>1545</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>44166</v>
-          </cell>
-          <cell r="B109">
-            <v>1663</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>44197</v>
-          </cell>
-          <cell r="B110">
-            <v>1602</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>44228</v>
-          </cell>
-          <cell r="B111">
-            <v>1422</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>44256</v>
-          </cell>
-          <cell r="B112">
-            <v>1700</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>44287</v>
-          </cell>
-          <cell r="B113">
-            <v>1484</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>44317</v>
-          </cell>
-          <cell r="B114">
-            <v>1600</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>44348</v>
-          </cell>
-          <cell r="B115">
-            <v>1661</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>44378</v>
-          </cell>
-          <cell r="B116">
-            <v>1593</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>44409</v>
-          </cell>
-          <cell r="B117">
-            <v>1576</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>44440</v>
-          </cell>
-          <cell r="B118">
-            <v>1560</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>44470</v>
-          </cell>
-          <cell r="B119">
-            <v>1572</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>44501</v>
-          </cell>
-          <cell r="B120">
-            <v>1712</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>44531</v>
-          </cell>
-          <cell r="B121">
-            <v>1787</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>44562</v>
-          </cell>
-          <cell r="B122">
-            <v>1669</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>44593</v>
-          </cell>
-          <cell r="B123">
-            <v>1771</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>44621</v>
-          </cell>
-          <cell r="B124">
-            <v>1713</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>44652</v>
-          </cell>
-          <cell r="B125">
-            <v>1803</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>44682</v>
-          </cell>
-          <cell r="B126">
-            <v>1543</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>44713</v>
-          </cell>
-          <cell r="B127">
-            <v>1561</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>44743</v>
-          </cell>
-          <cell r="B128">
-            <v>1371</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>44774</v>
-          </cell>
-          <cell r="B129">
-            <v>1505</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>44805</v>
-          </cell>
-          <cell r="B130">
-            <v>1463</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>44835</v>
-          </cell>
-          <cell r="B131">
-            <v>1432</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>44866</v>
-          </cell>
-          <cell r="B132">
-            <v>1427</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>44896</v>
-          </cell>
-          <cell r="B133">
-            <v>1357</v>
-          </cell>
-          <cell r="C133">
-            <v>1357</v>
-          </cell>
-          <cell r="D133">
-            <v>1357</v>
-          </cell>
-          <cell r="E133">
-            <v>1357</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>44927</v>
-          </cell>
-          <cell r="C134">
-            <v>1383.3700679649096</v>
-          </cell>
-          <cell r="D134">
-            <v>1180.773458924318</v>
-          </cell>
-          <cell r="E134">
-            <v>1585.9666770055012</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>44958</v>
-          </cell>
-          <cell r="C135">
-            <v>1389.3407713736731</v>
-          </cell>
-          <cell r="D135">
-            <v>1135.9734002676657</v>
-          </cell>
-          <cell r="E135">
-            <v>1642.7081424796804</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>44986</v>
-          </cell>
-          <cell r="C136">
-            <v>1395.3114747824363</v>
-          </cell>
-          <cell r="D136">
-            <v>1099.6658174445647</v>
-          </cell>
-          <cell r="E136">
-            <v>1690.957132120308</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>45017</v>
-          </cell>
-          <cell r="C137">
-            <v>1401.2821781911996</v>
-          </cell>
-          <cell r="D137">
-            <v>1068.5969546386086</v>
-          </cell>
-          <cell r="E137">
-            <v>1733.9674017437906</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>45047</v>
-          </cell>
-          <cell r="C138">
-            <v>1407.2528815999631</v>
-          </cell>
-          <cell r="D138">
-            <v>1041.1730861530871</v>
-          </cell>
-          <cell r="E138">
-            <v>1773.3326770468391</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>45078</v>
-          </cell>
-          <cell r="C139">
-            <v>1413.2235850087263</v>
-          </cell>
-          <cell r="D139">
-            <v>1016.4726394697373</v>
-          </cell>
-          <cell r="E139">
-            <v>1809.9745305477154</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>45108</v>
-          </cell>
-          <cell r="C140">
-            <v>1419.1942884174896</v>
-          </cell>
-          <cell r="D140">
-            <v>993.90588213773322</v>
-          </cell>
-          <cell r="E140">
-            <v>1844.482694697246</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>45139</v>
-          </cell>
-          <cell r="C141">
-            <v>1425.1649918262531</v>
-          </cell>
-          <cell r="D141">
-            <v>973.06849115977093</v>
-          </cell>
-          <cell r="E141">
-            <v>1877.2614924927352</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>45170</v>
-          </cell>
-          <cell r="C142">
-            <v>1431.1356952350163</v>
-          </cell>
-          <cell r="D142">
-            <v>953.66899788999308</v>
-          </cell>
-          <cell r="E142">
-            <v>1908.6023925800396</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>45200</v>
-          </cell>
-          <cell r="C143">
-            <v>1437.1063986437796</v>
-          </cell>
-          <cell r="D143">
-            <v>935.48910021518327</v>
-          </cell>
-          <cell r="E143">
-            <v>1938.7236970723759</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>45231</v>
-          </cell>
-          <cell r="C144">
-            <v>1443.0771020525431</v>
-          </cell>
-          <cell r="D144">
-            <v>918.36029363740477</v>
-          </cell>
-          <cell r="E144">
-            <v>1967.7939104676814</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>45261</v>
-          </cell>
-          <cell r="C145">
-            <v>1449.0478054613063</v>
-          </cell>
-          <cell r="D145">
-            <v>902.14930115174764</v>
-          </cell>
-          <cell r="E145">
-            <v>1995.9463097708649</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>45292</v>
-          </cell>
-          <cell r="C146">
-            <v>1455.0185088700696</v>
-          </cell>
-          <cell r="D146">
-            <v>886.74856322665812</v>
-          </cell>
-          <cell r="E146">
-            <v>2023.2884545134812</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>45323</v>
-          </cell>
-          <cell r="C147">
-            <v>1460.9892122788331</v>
-          </cell>
-          <cell r="D147">
-            <v>872.06979296856662</v>
-          </cell>
-          <cell r="E147">
-            <v>2049.9086315890995</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>45352</v>
-          </cell>
-          <cell r="C148">
-            <v>1466.9599156875963</v>
-          </cell>
-          <cell r="D148">
-            <v>858.03946927088191</v>
-          </cell>
-          <cell r="E148">
-            <v>2075.8803621043107</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>45383</v>
-          </cell>
-          <cell r="C149">
-            <v>1472.9306190963598</v>
-          </cell>
-          <cell r="D149">
-            <v>844.59560011117992</v>
-          </cell>
-          <cell r="E149">
-            <v>2101.2656380815397</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>45413</v>
-          </cell>
-          <cell r="C150">
-            <v>1478.9013225051231</v>
-          </cell>
-          <cell r="D150">
-            <v>831.6853441888893</v>
-          </cell>
-          <cell r="E150">
-            <v>2126.1173008213568</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>45444</v>
-          </cell>
-          <cell r="C151">
-            <v>1484.8720259138863</v>
-          </cell>
-          <cell r="D151">
-            <v>819.26322814352716</v>
-          </cell>
-          <cell r="E151">
-            <v>2150.4808236842455</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>45474</v>
-          </cell>
-          <cell r="C152">
-            <v>1490.8427293226496</v>
-          </cell>
-          <cell r="D152">
-            <v>807.28978666329112</v>
-          </cell>
-          <cell r="E152">
-            <v>2174.395671982008</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>45505</v>
-          </cell>
-          <cell r="C153">
-            <v>1496.8134327314131</v>
-          </cell>
-          <cell r="D153">
-            <v>795.73050901588897</v>
-          </cell>
-          <cell r="E153">
-            <v>2197.8963564469373</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>45536</v>
-          </cell>
-          <cell r="C154">
-            <v>1502.7841361401763</v>
-          </cell>
-          <cell r="D154">
-            <v>784.55501163895394</v>
-          </cell>
-          <cell r="E154">
-            <v>2221.0132606413986</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>45566</v>
-          </cell>
-          <cell r="C155">
-            <v>1508.7548395489398</v>
-          </cell>
-          <cell r="D155">
-            <v>773.73638020394105</v>
-          </cell>
-          <cell r="E155">
-            <v>2243.7732988939388</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>45597</v>
-          </cell>
-          <cell r="C156">
-            <v>1514.7255429577031</v>
-          </cell>
-          <cell r="D156">
-            <v>763.25064057932798</v>
-          </cell>
-          <cell r="E156">
-            <v>2266.2004453360782</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>45627</v>
-          </cell>
-          <cell r="C157">
-            <v>1520.6962463664663</v>
-          </cell>
-          <cell r="D157">
-            <v>753.07632912053975</v>
-          </cell>
-          <cell r="E157">
-            <v>2288.3161636123928</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>45658</v>
-          </cell>
-          <cell r="C158">
-            <v>1526.6669497752298</v>
-          </cell>
-          <cell r="D158">
-            <v>743.1941404111576</v>
-          </cell>
-          <cell r="E158">
-            <v>2310.139759139302</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>45689</v>
-          </cell>
-          <cell r="C159">
-            <v>1532.6376531839931</v>
-          </cell>
-          <cell r="D159">
-            <v>733.58663605434435</v>
-          </cell>
-          <cell r="E159">
-            <v>2331.6886703136415</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>45717</v>
-          </cell>
-          <cell r="C160">
-            <v>1538.6083565927563</v>
-          </cell>
-          <cell r="D160">
-            <v>724.23800206559235</v>
-          </cell>
-          <cell r="E160">
-            <v>2352.9787111199203</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>45748</v>
-          </cell>
-          <cell r="C161">
-            <v>1544.5790600015198</v>
-          </cell>
-          <cell r="D161">
-            <v>715.13384531044642</v>
-          </cell>
-          <cell r="E161">
-            <v>2374.0242746925933</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>45778</v>
-          </cell>
-          <cell r="C162">
-            <v>1550.549763410283</v>
-          </cell>
-          <cell r="D162">
-            <v>706.26102157466858</v>
-          </cell>
-          <cell r="E162">
-            <v>2394.8385052458975</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>45809</v>
-          </cell>
-          <cell r="C163">
-            <v>1556.5204668190463</v>
-          </cell>
-          <cell r="D163">
-            <v>697.60748946173408</v>
-          </cell>
-          <cell r="E163">
-            <v>2415.4334441763585</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>45839</v>
-          </cell>
-          <cell r="C164">
-            <v>1562.4911702278098</v>
-          </cell>
-          <cell r="D164">
-            <v>689.16218553074486</v>
-          </cell>
-          <cell r="E164">
-            <v>2435.8201549248747</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>45870</v>
-          </cell>
-          <cell r="C165">
-            <v>1568.461873636573</v>
-          </cell>
-          <cell r="D165">
-            <v>680.91491702033431</v>
-          </cell>
-          <cell r="E165">
-            <v>2456.008830252812</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>45901</v>
-          </cell>
-          <cell r="C166">
-            <v>1574.4325770453363</v>
-          </cell>
-          <cell r="D166">
-            <v>672.856269224529</v>
-          </cell>
-          <cell r="E166">
-            <v>2476.0088848661435</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -6406,13 +4843,13 @@
     <v>47</v>
     <v>Finance</v>
     <v>48</v>
-    <v>485</v>
-    <v>273.41000000000003</v>
-    <v>1.2907</v>
-    <v>-8.23</v>
-    <v>-5.153E-4</v>
-    <v>-1.7364000000000001E-2</v>
-    <v>-0.24</v>
+    <v>500.89</v>
+    <v>285.33010000000002</v>
+    <v>1.2182999999999999</v>
+    <v>4.41</v>
+    <v>1.201E-3</v>
+    <v>9.3779999999999992E-3</v>
+    <v>0.56999999999999995</v>
     <v>USD</v>
     <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
     <v>12800</v>
@@ -6420,25 +4857,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>475.22989999999999</v>
+    <v>480.73930000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041639501564</v>
+    <v>45295.96319741875</v>
     <v>167</v>
-    <v>464.6</v>
-    <v>203844900000</v>
+    <v>466.53</v>
+    <v>207753423199</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>473.17</v>
-    <v>51.4512</v>
-    <v>473.97</v>
-    <v>465.74</v>
-    <v>465.5</v>
+    <v>472.98</v>
+    <v>51.048499999999997</v>
+    <v>470.26</v>
+    <v>474.67</v>
+    <v>475.24</v>
     <v>437679700</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>4341471</v>
-    <v>3711843</v>
+    <v>3633908</v>
+    <v>3957959</v>
     <v>1997</v>
   </rv>
   <rv s="8">
@@ -6482,35 +4919,35 @@
     <v>53</v>
     <v>171.9</v>
     <v>73.83</v>
-    <v>1.3658999999999999</v>
-    <v>-1.35</v>
-    <v>-1.5705E-2</v>
+    <v>1.3759999999999999</v>
+    <v>-1.67</v>
+    <v>-1.9880999999999999E-2</v>
     <v>EUR</v>
-    <v>The Walt Disney Company is a worldwide entertainment company. The Company’s segments include Disney Media and Entertainment Distribution (DMED), and Disney Parks, Experiences and Products (DPEP). The DMED segment encompasses the Company’s global film and episodic television content production and distribution activities. The Company’s DMED’s lines of business consists of Linear Networks, Direct-to-Consumer and Content Sales/Licensing. The Company’s DPEP segment business consists of sale of admissions to theme parks, the sale of food, beverage and merchandise at its theme parks and resorts, sales of cruise vacations, sales and rentals of vacation club properties, royalties from licensing its intellectual properties (IP) for use on consumer goods and the sale of branded merchandise. The Company's Content Sales/Licensing business consist of selling film and episodic television content in the television and subscription video-on-demand (TV/SVOD) and home entertainment markets.</v>
+    <v>The Walt Disney Company is a diversified entertainment company that operates in three segments: Entertainment, Sports and Experiences. The Entertainment segment encompasses the Company's non-sports focused global film, television and direct-to-consumer (DTC) video streaming content production and distribution activities. Its line of business includes Linear Networks, DTC, and Content Sales/Licensing. The Sports segment encompasses the Company's sports-focused global television and DTC video streaming content production and distribution activities. Its line of business includes ESPN and Star. Experiences segment includes Parks and Experiences and Consumer Products. Parks and Experiences consists of Walt Disney World Resort in Florida, Disneyland Resort in California, Disney Cruise Line, Disney Vacation Club, and Disneyland Paris, among others. Consumer Products includes licensing of its trade names, characters, visual, literary and other IP. It also includes sale of branded merchandise.</v>
     <v>225000</v>
     <v>Deutsche Boerse AG</v>
     <v>XFRA</v>
     <v>XFRA</v>
     <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
-    <v>85.55</v>
+    <v>84.23</v>
     <v>173</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45261.878472222219</v>
+    <v>45295.878472222219</v>
     <v>174</v>
-    <v>84.61</v>
-    <v>169652000000</v>
+    <v>82.04</v>
+    <v>167748500000</v>
     <v>THE WALT DISNEY COMPANY</v>
     <v>THE WALT DISNEY COMPANY</v>
-    <v>85.1</v>
-    <v>69.36</v>
-    <v>85.96</v>
-    <v>84.61</v>
+    <v>83.76</v>
+    <v>67.930000000000007</v>
+    <v>84</v>
+    <v>82.33</v>
     <v>1830316000</v>
     <v>WDP</v>
     <v>THE WALT DISNEY COMPANY (XFRA:WDP)</v>
-    <v>1238</v>
-    <v>12382610</v>
+    <v>2532</v>
+    <v>10089380</v>
     <v>2018</v>
   </rv>
   <rv s="8">
@@ -6547,14 +4984,14 @@
     <v>51</v>
     <v>56</v>
     <v>Finance</v>
-    <v>57</v>
+    <v>48</v>
     <v>15.42</v>
     <v>9.6300000000000008</v>
-    <v>1.6211</v>
-    <v>0.315</v>
-    <v>9.452000000000001E-4</v>
-    <v>3.0701999999999997E-2</v>
-    <v>0.01</v>
+    <v>1.6373</v>
+    <v>-1.4999999999999999E-2</v>
+    <v>4.2810000000000001E-3</v>
+    <v>-1.281E-3</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>Ford Motor Company is an automobile company. The Company designs, manufactures, markets, and services a full line of electrified passenger and commercial vehicles, such as Ford trucks, utility vehicles, vans, and cars, and Lincoln luxury vehicles. The Company's segments include Ford Blue, Ford Model e, Ford Pro, Ford Next and Ford Credit. Its Ford Blue segment is engaged in developing gas-powered and hybrid vehicles. Its Ford Model e segment is engaged in developing electronic vehicles (EVs) along with embedded software that defines always-on digital experiences for all customers. Its Ford Pro segment is engaged in helping commercial customers transform and expand their businesses with vehicles and services tailored to their needs. Ford Next segment is engaged in pursuing mobility solutions and provides financial services through Ford Motor Credit Company. The Ford Credit segment is primarily engaged in providing vehicle-related financing and leasing activities.</v>
     <v>173000</v>
@@ -6562,26 +4999,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One American Road, DEARBORN, MI, 48126-2701 US</v>
-    <v>10.6</v>
+    <v>11.82</v>
     <v>179</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45262.041384988283</v>
+    <v>45295.963349953126</v>
     <v>180</v>
-    <v>10.220000000000001</v>
-    <v>42351260000</v>
+    <v>11.63</v>
+    <v>46814547030</v>
     <v>FORD MOTOR COMPANY</v>
     <v>FORD MOTOR COMPANY</v>
-    <v>10.29</v>
-    <v>6.6959</v>
-    <v>10.26</v>
-    <v>10.574999999999999</v>
-    <v>10.59</v>
+    <v>11.76</v>
+    <v>7.6421999999999999</v>
+    <v>11.71</v>
+    <v>11.695</v>
+    <v>11.73</v>
     <v>4002954000</v>
     <v>F</v>
     <v>FORD MOTOR COMPANY (XNYS:F)</v>
-    <v>61619835</v>
-    <v>60846324</v>
+    <v>54900478</v>
+    <v>53207144</v>
     <v>1919</v>
   </rv>
   <rv s="8">
@@ -6602,40 +5039,40 @@
     <v>46</v>
     <v>47</v>
     <v>Finance</v>
-    <v>57</v>
-    <v>142.38</v>
+    <v>48</v>
+    <v>143.94499999999999</v>
     <v>85.57</v>
-    <v>1.0539000000000001</v>
-    <v>-0.6</v>
-    <v>1.4249999999999998E-3</v>
-    <v>-4.4800000000000005E-3</v>
-    <v>0.19</v>
+    <v>1.0581</v>
+    <v>-2.3199999999999998</v>
+    <v>6.1580000000000001E-4</v>
+    <v>-1.6529000000000002E-2</v>
+    <v>8.5000000000000006E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
     <v>182381</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>133.5</v>
+    <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
+    <v>140.63499999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041643842189</v>
+    <v>45295.962948506247</v>
     <v>183</v>
-    <v>132.15170000000001</v>
-    <v>1666703000000</v>
+    <v>138.01</v>
+    <v>1746967000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>133.32</v>
-    <v>25.7012</v>
-    <v>133.91999999999999</v>
-    <v>133.32</v>
-    <v>133.51</v>
+    <v>139.85</v>
+    <v>26.937100000000001</v>
+    <v>140.36000000000001</v>
+    <v>138.04</v>
+    <v>138.125</v>
     <v>12516000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>24267987</v>
-    <v>20890668</v>
+    <v>18240649</v>
+    <v>23566687</v>
     <v>2015</v>
   </rv>
   <rv s="8">
@@ -7237,7 +5674,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="58">
+  <spbData count="57">
     <spb s="0">
       <v xml:space="preserve">data.worldbank.org	</v>
       <v xml:space="preserve">	</v>
@@ -7727,9 +6164,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -7811,16 +6248,6 @@
       <v>9</v>
       <v>9</v>
       <v>11</v>
-    </spb>
-    <spb s="11">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -8438,8 +6865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60EBA2-0B19-45D1-B51F-A14F0BA9AC0F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.1328125" defaultRowHeight="33.4" x14ac:dyDescent="1"/>
@@ -10213,7 +8640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C4151-5688-48F2-A969-A7F54377E4FA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B12"/>
     </sheetView>
@@ -10301,7 +8728,7 @@
       </c>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">_FV(Table2[[#This Row],[company]],"Headquarters")</f>
-        <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
+        <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
       </c>
     </row>
   </sheetData>

--- a/ai_powered_excel/2-ai-powered-data-entry-forecasting/ai-powered-data-entry-forecasting-solutions.xlsx
+++ b/ai_powered_excel/2-ai-powered-data-entry-forecasting/ai-powered-data-entry-forecasting-solutions.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\ai_powered_excel\2-ai-powered-data-entry-forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-2024-analytics-2_0\ai_powered_excel\2-ai-powered-data-entry-forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9DA1FF-1F1E-40A3-964A-F31F5447B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A90423-9B8C-45CC-9C8D-632B0602F4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-from-picture" sheetId="2" r:id="rId1"/>
     <sheet name="forecast-sheet" sheetId="3" r:id="rId2"/>
     <sheet name="linked-data-types" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3527,1566 +3524,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="data"/>
-      <sheetName val="forecast"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>housing_starts</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Forecast(housing_starts)</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Lower Confidence Bound(housing_starts)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Upper Confidence Bound(housing_starts)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>40909</v>
-          </cell>
-          <cell r="B2">
-            <v>723</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>40940</v>
-          </cell>
-          <cell r="B3">
-            <v>704</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>40969</v>
-          </cell>
-          <cell r="B4">
-            <v>695</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>41000</v>
-          </cell>
-          <cell r="B5">
-            <v>753</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>41030</v>
-          </cell>
-          <cell r="B6">
-            <v>708</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>41061</v>
-          </cell>
-          <cell r="B7">
-            <v>757</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>41091</v>
-          </cell>
-          <cell r="B8">
-            <v>740</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>41122</v>
-          </cell>
-          <cell r="B9">
-            <v>754</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>41153</v>
-          </cell>
-          <cell r="B10">
-            <v>847</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>41183</v>
-          </cell>
-          <cell r="B11">
-            <v>915</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>41214</v>
-          </cell>
-          <cell r="B12">
-            <v>833</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>41244</v>
-          </cell>
-          <cell r="B13">
-            <v>976</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>41275</v>
-          </cell>
-          <cell r="B14">
-            <v>888</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>41306</v>
-          </cell>
-          <cell r="B15">
-            <v>962</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>41334</v>
-          </cell>
-          <cell r="B16">
-            <v>1010</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>41365</v>
-          </cell>
-          <cell r="B17">
-            <v>835</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>41395</v>
-          </cell>
-          <cell r="B18">
-            <v>930</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>41426</v>
-          </cell>
-          <cell r="B19">
-            <v>839</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>41456</v>
-          </cell>
-          <cell r="B20">
-            <v>880</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>41487</v>
-          </cell>
-          <cell r="B21">
-            <v>917</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>41518</v>
-          </cell>
-          <cell r="B22">
-            <v>850</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>41548</v>
-          </cell>
-          <cell r="B23">
-            <v>925</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>41579</v>
-          </cell>
-          <cell r="B24">
-            <v>1100</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>41609</v>
-          </cell>
-          <cell r="B25">
-            <v>1002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>41640</v>
-          </cell>
-          <cell r="B26">
-            <v>888</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>41671</v>
-          </cell>
-          <cell r="B27">
-            <v>944</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>41699</v>
-          </cell>
-          <cell r="B28">
-            <v>970</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>41730</v>
-          </cell>
-          <cell r="B29">
-            <v>1043</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>41760</v>
-          </cell>
-          <cell r="B30">
-            <v>1007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>41791</v>
-          </cell>
-          <cell r="B31">
-            <v>911</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>41821</v>
-          </cell>
-          <cell r="B32">
-            <v>1085</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>41852</v>
-          </cell>
-          <cell r="B33">
-            <v>984</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>41883</v>
-          </cell>
-          <cell r="B34">
-            <v>1023</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>41913</v>
-          </cell>
-          <cell r="B35">
-            <v>1074</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>41944</v>
-          </cell>
-          <cell r="B36">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>41974</v>
-          </cell>
-          <cell r="B37">
-            <v>1073</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>42005</v>
-          </cell>
-          <cell r="B38">
-            <v>1085</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>42036</v>
-          </cell>
-          <cell r="B39">
-            <v>886</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>42064</v>
-          </cell>
-          <cell r="B40">
-            <v>960</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>42095</v>
-          </cell>
-          <cell r="B41">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>42125</v>
-          </cell>
-          <cell r="B42">
-            <v>1079</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42156</v>
-          </cell>
-          <cell r="B43">
-            <v>1205</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>42186</v>
-          </cell>
-          <cell r="B44">
-            <v>1146</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>42217</v>
-          </cell>
-          <cell r="B45">
-            <v>1130</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>42248</v>
-          </cell>
-          <cell r="B46">
-            <v>1224</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>42278</v>
-          </cell>
-          <cell r="B47">
-            <v>1058</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>42309</v>
-          </cell>
-          <cell r="B48">
-            <v>1172</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>42339</v>
-          </cell>
-          <cell r="B49">
-            <v>1146</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>42370</v>
-          </cell>
-          <cell r="B50">
-            <v>1092</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>42401</v>
-          </cell>
-          <cell r="B51">
-            <v>1225</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>42430</v>
-          </cell>
-          <cell r="B52">
-            <v>1111</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>42461</v>
-          </cell>
-          <cell r="B53">
-            <v>1163</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>42491</v>
-          </cell>
-          <cell r="B54">
-            <v>1148</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>42522</v>
-          </cell>
-          <cell r="B55">
-            <v>1203</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>42552</v>
-          </cell>
-          <cell r="B56">
-            <v>1239</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>42583</v>
-          </cell>
-          <cell r="B57">
-            <v>1171</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>42614</v>
-          </cell>
-          <cell r="B58">
-            <v>1068</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>42644</v>
-          </cell>
-          <cell r="B59">
-            <v>1313</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>42675</v>
-          </cell>
-          <cell r="B60">
-            <v>1140</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>42705</v>
-          </cell>
-          <cell r="B61">
-            <v>1252</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>42736</v>
-          </cell>
-          <cell r="B62">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>42767</v>
-          </cell>
-          <cell r="B63">
-            <v>1271</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>42795</v>
-          </cell>
-          <cell r="B64">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>42826</v>
-          </cell>
-          <cell r="B65">
-            <v>1146</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>42856</v>
-          </cell>
-          <cell r="B66">
-            <v>1157</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>42887</v>
-          </cell>
-          <cell r="B67">
-            <v>1249</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>42917</v>
-          </cell>
-          <cell r="B68">
-            <v>1206</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>42948</v>
-          </cell>
-          <cell r="B69">
-            <v>1159</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>42979</v>
-          </cell>
-          <cell r="B70">
-            <v>1181</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>43009</v>
-          </cell>
-          <cell r="B71">
-            <v>1257</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>43040</v>
-          </cell>
-          <cell r="B72">
-            <v>1273</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>43070</v>
-          </cell>
-          <cell r="B73">
-            <v>1177</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>43101</v>
-          </cell>
-          <cell r="B74">
-            <v>1299</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>43132</v>
-          </cell>
-          <cell r="B75">
-            <v>1277</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>43160</v>
-          </cell>
-          <cell r="B76">
-            <v>1318</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>43191</v>
-          </cell>
-          <cell r="B77">
-            <v>1276</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>43221</v>
-          </cell>
-          <cell r="B78">
-            <v>1357</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>43252</v>
-          </cell>
-          <cell r="B79">
-            <v>1192</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>43282</v>
-          </cell>
-          <cell r="B80">
-            <v>1208</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>43313</v>
-          </cell>
-          <cell r="B81">
-            <v>1288</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>43344</v>
-          </cell>
-          <cell r="B82">
-            <v>1250</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>43374</v>
-          </cell>
-          <cell r="B83">
-            <v>1221</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>43405</v>
-          </cell>
-          <cell r="B84">
-            <v>1181</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>43435</v>
-          </cell>
-          <cell r="B85">
-            <v>1095</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>43466</v>
-          </cell>
-          <cell r="B86">
-            <v>1232</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>43497</v>
-          </cell>
-          <cell r="B87">
-            <v>1128</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>43525</v>
-          </cell>
-          <cell r="B88">
-            <v>1195</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>43556</v>
-          </cell>
-          <cell r="B89">
-            <v>1267</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>43586</v>
-          </cell>
-          <cell r="B90">
-            <v>1307</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>43617</v>
-          </cell>
-          <cell r="B91">
-            <v>1228</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>43647</v>
-          </cell>
-          <cell r="B92">
-            <v>1245</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>43678</v>
-          </cell>
-          <cell r="B93">
-            <v>1367</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>43709</v>
-          </cell>
-          <cell r="B94">
-            <v>1300</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>43739</v>
-          </cell>
-          <cell r="B95">
-            <v>1332</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>43770</v>
-          </cell>
-          <cell r="B96">
-            <v>1346</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>43800</v>
-          </cell>
-          <cell r="B97">
-            <v>1551</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>43831</v>
-          </cell>
-          <cell r="B98">
-            <v>1572</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>43862</v>
-          </cell>
-          <cell r="B99">
-            <v>1565</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>43891</v>
-          </cell>
-          <cell r="B100">
-            <v>1267</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>43922</v>
-          </cell>
-          <cell r="B101">
-            <v>925</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>43952</v>
-          </cell>
-          <cell r="B102">
-            <v>1054</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>43983</v>
-          </cell>
-          <cell r="B103">
-            <v>1266</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>44013</v>
-          </cell>
-          <cell r="B104">
-            <v>1529</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>44044</v>
-          </cell>
-          <cell r="B105">
-            <v>1377</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>44075</v>
-          </cell>
-          <cell r="B106">
-            <v>1463</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>44105</v>
-          </cell>
-          <cell r="B107">
-            <v>1537</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>44136</v>
-          </cell>
-          <cell r="B108">
-            <v>1545</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>44166</v>
-          </cell>
-          <cell r="B109">
-            <v>1663</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>44197</v>
-          </cell>
-          <cell r="B110">
-            <v>1602</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>44228</v>
-          </cell>
-          <cell r="B111">
-            <v>1422</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>44256</v>
-          </cell>
-          <cell r="B112">
-            <v>1700</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>44287</v>
-          </cell>
-          <cell r="B113">
-            <v>1484</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>44317</v>
-          </cell>
-          <cell r="B114">
-            <v>1600</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>44348</v>
-          </cell>
-          <cell r="B115">
-            <v>1661</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>44378</v>
-          </cell>
-          <cell r="B116">
-            <v>1593</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>44409</v>
-          </cell>
-          <cell r="B117">
-            <v>1576</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>44440</v>
-          </cell>
-          <cell r="B118">
-            <v>1560</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>44470</v>
-          </cell>
-          <cell r="B119">
-            <v>1572</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>44501</v>
-          </cell>
-          <cell r="B120">
-            <v>1712</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>44531</v>
-          </cell>
-          <cell r="B121">
-            <v>1787</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>44562</v>
-          </cell>
-          <cell r="B122">
-            <v>1669</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>44593</v>
-          </cell>
-          <cell r="B123">
-            <v>1771</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>44621</v>
-          </cell>
-          <cell r="B124">
-            <v>1713</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>44652</v>
-          </cell>
-          <cell r="B125">
-            <v>1803</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>44682</v>
-          </cell>
-          <cell r="B126">
-            <v>1543</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>44713</v>
-          </cell>
-          <cell r="B127">
-            <v>1561</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>44743</v>
-          </cell>
-          <cell r="B128">
-            <v>1371</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>44774</v>
-          </cell>
-          <cell r="B129">
-            <v>1505</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>44805</v>
-          </cell>
-          <cell r="B130">
-            <v>1463</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>44835</v>
-          </cell>
-          <cell r="B131">
-            <v>1432</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>44866</v>
-          </cell>
-          <cell r="B132">
-            <v>1427</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>44896</v>
-          </cell>
-          <cell r="B133">
-            <v>1357</v>
-          </cell>
-          <cell r="C133">
-            <v>1357</v>
-          </cell>
-          <cell r="D133">
-            <v>1357</v>
-          </cell>
-          <cell r="E133">
-            <v>1357</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>44927</v>
-          </cell>
-          <cell r="C134">
-            <v>1383.3700679649096</v>
-          </cell>
-          <cell r="D134">
-            <v>1180.773458924318</v>
-          </cell>
-          <cell r="E134">
-            <v>1585.9666770055012</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>44958</v>
-          </cell>
-          <cell r="C135">
-            <v>1389.3407713736731</v>
-          </cell>
-          <cell r="D135">
-            <v>1135.9734002676657</v>
-          </cell>
-          <cell r="E135">
-            <v>1642.7081424796804</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>44986</v>
-          </cell>
-          <cell r="C136">
-            <v>1395.3114747824363</v>
-          </cell>
-          <cell r="D136">
-            <v>1099.6658174445647</v>
-          </cell>
-          <cell r="E136">
-            <v>1690.957132120308</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>45017</v>
-          </cell>
-          <cell r="C137">
-            <v>1401.2821781911996</v>
-          </cell>
-          <cell r="D137">
-            <v>1068.5969546386086</v>
-          </cell>
-          <cell r="E137">
-            <v>1733.9674017437906</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>45047</v>
-          </cell>
-          <cell r="C138">
-            <v>1407.2528815999631</v>
-          </cell>
-          <cell r="D138">
-            <v>1041.1730861530871</v>
-          </cell>
-          <cell r="E138">
-            <v>1773.3326770468391</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>45078</v>
-          </cell>
-          <cell r="C139">
-            <v>1413.2235850087263</v>
-          </cell>
-          <cell r="D139">
-            <v>1016.4726394697373</v>
-          </cell>
-          <cell r="E139">
-            <v>1809.9745305477154</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>45108</v>
-          </cell>
-          <cell r="C140">
-            <v>1419.1942884174896</v>
-          </cell>
-          <cell r="D140">
-            <v>993.90588213773322</v>
-          </cell>
-          <cell r="E140">
-            <v>1844.482694697246</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>45139</v>
-          </cell>
-          <cell r="C141">
-            <v>1425.1649918262531</v>
-          </cell>
-          <cell r="D141">
-            <v>973.06849115977093</v>
-          </cell>
-          <cell r="E141">
-            <v>1877.2614924927352</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>45170</v>
-          </cell>
-          <cell r="C142">
-            <v>1431.1356952350163</v>
-          </cell>
-          <cell r="D142">
-            <v>953.66899788999308</v>
-          </cell>
-          <cell r="E142">
-            <v>1908.6023925800396</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>45200</v>
-          </cell>
-          <cell r="C143">
-            <v>1437.1063986437796</v>
-          </cell>
-          <cell r="D143">
-            <v>935.48910021518327</v>
-          </cell>
-          <cell r="E143">
-            <v>1938.7236970723759</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>45231</v>
-          </cell>
-          <cell r="C144">
-            <v>1443.0771020525431</v>
-          </cell>
-          <cell r="D144">
-            <v>918.36029363740477</v>
-          </cell>
-          <cell r="E144">
-            <v>1967.7939104676814</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>45261</v>
-          </cell>
-          <cell r="C145">
-            <v>1449.0478054613063</v>
-          </cell>
-          <cell r="D145">
-            <v>902.14930115174764</v>
-          </cell>
-          <cell r="E145">
-            <v>1995.9463097708649</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>45292</v>
-          </cell>
-          <cell r="C146">
-            <v>1455.0185088700696</v>
-          </cell>
-          <cell r="D146">
-            <v>886.74856322665812</v>
-          </cell>
-          <cell r="E146">
-            <v>2023.2884545134812</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>45323</v>
-          </cell>
-          <cell r="C147">
-            <v>1460.9892122788331</v>
-          </cell>
-          <cell r="D147">
-            <v>872.06979296856662</v>
-          </cell>
-          <cell r="E147">
-            <v>2049.9086315890995</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>45352</v>
-          </cell>
-          <cell r="C148">
-            <v>1466.9599156875963</v>
-          </cell>
-          <cell r="D148">
-            <v>858.03946927088191</v>
-          </cell>
-          <cell r="E148">
-            <v>2075.8803621043107</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>45383</v>
-          </cell>
-          <cell r="C149">
-            <v>1472.9306190963598</v>
-          </cell>
-          <cell r="D149">
-            <v>844.59560011117992</v>
-          </cell>
-          <cell r="E149">
-            <v>2101.2656380815397</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>45413</v>
-          </cell>
-          <cell r="C150">
-            <v>1478.9013225051231</v>
-          </cell>
-          <cell r="D150">
-            <v>831.6853441888893</v>
-          </cell>
-          <cell r="E150">
-            <v>2126.1173008213568</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>45444</v>
-          </cell>
-          <cell r="C151">
-            <v>1484.8720259138863</v>
-          </cell>
-          <cell r="D151">
-            <v>819.26322814352716</v>
-          </cell>
-          <cell r="E151">
-            <v>2150.4808236842455</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>45474</v>
-          </cell>
-          <cell r="C152">
-            <v>1490.8427293226496</v>
-          </cell>
-          <cell r="D152">
-            <v>807.28978666329112</v>
-          </cell>
-          <cell r="E152">
-            <v>2174.395671982008</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>45505</v>
-          </cell>
-          <cell r="C153">
-            <v>1496.8134327314131</v>
-          </cell>
-          <cell r="D153">
-            <v>795.73050901588897</v>
-          </cell>
-          <cell r="E153">
-            <v>2197.8963564469373</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>45536</v>
-          </cell>
-          <cell r="C154">
-            <v>1502.7841361401763</v>
-          </cell>
-          <cell r="D154">
-            <v>784.55501163895394</v>
-          </cell>
-          <cell r="E154">
-            <v>2221.0132606413986</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>45566</v>
-          </cell>
-          <cell r="C155">
-            <v>1508.7548395489398</v>
-          </cell>
-          <cell r="D155">
-            <v>773.73638020394105</v>
-          </cell>
-          <cell r="E155">
-            <v>2243.7732988939388</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>45597</v>
-          </cell>
-          <cell r="C156">
-            <v>1514.7255429577031</v>
-          </cell>
-          <cell r="D156">
-            <v>763.25064057932798</v>
-          </cell>
-          <cell r="E156">
-            <v>2266.2004453360782</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>45627</v>
-          </cell>
-          <cell r="C157">
-            <v>1520.6962463664663</v>
-          </cell>
-          <cell r="D157">
-            <v>753.07632912053975</v>
-          </cell>
-          <cell r="E157">
-            <v>2288.3161636123928</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>45658</v>
-          </cell>
-          <cell r="C158">
-            <v>1526.6669497752298</v>
-          </cell>
-          <cell r="D158">
-            <v>743.1941404111576</v>
-          </cell>
-          <cell r="E158">
-            <v>2310.139759139302</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>45689</v>
-          </cell>
-          <cell r="C159">
-            <v>1532.6376531839931</v>
-          </cell>
-          <cell r="D159">
-            <v>733.58663605434435</v>
-          </cell>
-          <cell r="E159">
-            <v>2331.6886703136415</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>45717</v>
-          </cell>
-          <cell r="C160">
-            <v>1538.6083565927563</v>
-          </cell>
-          <cell r="D160">
-            <v>724.23800206559235</v>
-          </cell>
-          <cell r="E160">
-            <v>2352.9787111199203</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>45748</v>
-          </cell>
-          <cell r="C161">
-            <v>1544.5790600015198</v>
-          </cell>
-          <cell r="D161">
-            <v>715.13384531044642</v>
-          </cell>
-          <cell r="E161">
-            <v>2374.0242746925933</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>45778</v>
-          </cell>
-          <cell r="C162">
-            <v>1550.549763410283</v>
-          </cell>
-          <cell r="D162">
-            <v>706.26102157466858</v>
-          </cell>
-          <cell r="E162">
-            <v>2394.8385052458975</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>45809</v>
-          </cell>
-          <cell r="C163">
-            <v>1556.5204668190463</v>
-          </cell>
-          <cell r="D163">
-            <v>697.60748946173408</v>
-          </cell>
-          <cell r="E163">
-            <v>2415.4334441763585</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>45839</v>
-          </cell>
-          <cell r="C164">
-            <v>1562.4911702278098</v>
-          </cell>
-          <cell r="D164">
-            <v>689.16218553074486</v>
-          </cell>
-          <cell r="E164">
-            <v>2435.8201549248747</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>45870</v>
-          </cell>
-          <cell r="C165">
-            <v>1568.461873636573</v>
-          </cell>
-          <cell r="D165">
-            <v>680.91491702033431</v>
-          </cell>
-          <cell r="E165">
-            <v>2456.008830252812</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>45901</v>
-          </cell>
-          <cell r="C166">
-            <v>1574.4325770453363</v>
-          </cell>
-          <cell r="D166">
-            <v>672.856269224529</v>
-          </cell>
-          <cell r="E166">
-            <v>2476.0088848661435</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -6406,39 +4843,36 @@
     <v>47</v>
     <v>Finance</v>
     <v>48</v>
-    <v>485</v>
-    <v>273.41000000000003</v>
-    <v>1.2907</v>
-    <v>-8.23</v>
-    <v>-5.153E-4</v>
-    <v>-1.7364000000000001E-2</v>
-    <v>-0.24</v>
+    <v>579.64</v>
+    <v>285.33010000000002</v>
+    <v>1.2177</v>
+    <v>-2.8489</v>
+    <v>-5.0200000000000002E-3</v>
     <v>USD</v>
-    <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
-    <v>12800</v>
+    <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
+    <v>13000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>475.22989999999999</v>
+    <v>567.61</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041639501564</v>
+    <v>45324.605542279685</v>
     <v>167</v>
-    <v>464.6</v>
-    <v>203844900000</v>
+    <v>564.52</v>
+    <v>244362511771</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>473.17</v>
-    <v>51.4512</v>
-    <v>473.97</v>
-    <v>465.74</v>
-    <v>465.5</v>
-    <v>437679700</v>
+    <v>564.52</v>
+    <v>47.219099999999997</v>
+    <v>567.51</v>
+    <v>564.66110000000003</v>
+    <v>432759600</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>4341471</v>
-    <v>3711843</v>
+    <v>138070</v>
+    <v>6244318</v>
     <v>1997</v>
   </rv>
   <rv s="8">
@@ -6482,35 +4916,35 @@
     <v>53</v>
     <v>171.9</v>
     <v>73.83</v>
-    <v>1.3658999999999999</v>
-    <v>-1.35</v>
-    <v>-1.5705E-2</v>
+    <v>1.3866000000000001</v>
+    <v>-0.1</v>
+    <v>-1.119E-3</v>
     <v>EUR</v>
-    <v>The Walt Disney Company is a worldwide entertainment company. The Company’s segments include Disney Media and Entertainment Distribution (DMED), and Disney Parks, Experiences and Products (DPEP). The DMED segment encompasses the Company’s global film and episodic television content production and distribution activities. The Company’s DMED’s lines of business consists of Linear Networks, Direct-to-Consumer and Content Sales/Licensing. The Company’s DPEP segment business consists of sale of admissions to theme parks, the sale of food, beverage and merchandise at its theme parks and resorts, sales of cruise vacations, sales and rentals of vacation club properties, royalties from licensing its intellectual properties (IP) for use on consumer goods and the sale of branded merchandise. The Company's Content Sales/Licensing business consist of selling film and episodic television content in the television and subscription video-on-demand (TV/SVOD) and home entertainment markets.</v>
+    <v>The Walt Disney Company is a diversified entertainment company that operates in three segments: Entertainment, Sports and Experiences. The Entertainment segment encompasses the Company's non-sports focused global film, television and direct-to-consumer (DTC) video streaming content production and distribution activities. Its line of business includes Linear Networks, DTC, and Content Sales/Licensing. The Sports segment encompasses the Company's sports-focused global television and DTC video streaming content production and distribution activities. Its line of business includes ESPN and Star. Experiences segment includes Parks and Experiences and Consumer Products. Parks and Experiences consists of Walt Disney World Resort in Florida, Disneyland Resort in California, Disney Cruise Line, Disney Vacation Club, and Disneyland Paris, among others. Consumer Products includes licensing of its trade names, characters, visual, literary and other IP. It also includes sale of branded merchandise.</v>
     <v>225000</v>
     <v>Deutsche Boerse AG</v>
     <v>XFRA</v>
     <v>XFRA</v>
     <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
-    <v>85.55</v>
+    <v>89.88</v>
     <v>173</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45261.878472222219</v>
+    <v>45324.594444444447</v>
     <v>174</v>
-    <v>84.61</v>
-    <v>169652000000</v>
+    <v>89.03</v>
+    <v>178035800000</v>
     <v>THE WALT DISNEY COMPANY</v>
     <v>THE WALT DISNEY COMPANY</v>
-    <v>85.1</v>
-    <v>69.36</v>
-    <v>85.96</v>
-    <v>84.61</v>
-    <v>1830316000</v>
+    <v>89.68</v>
+    <v>73.11</v>
+    <v>89.36</v>
+    <v>89.26</v>
+    <v>1834286000</v>
     <v>WDP</v>
     <v>THE WALT DISNEY COMPANY (XFRA:WDP)</v>
-    <v>1238</v>
-    <v>12382610</v>
+    <v>465</v>
+    <v>11775540</v>
     <v>2018</v>
   </rv>
   <rv s="8">
@@ -6536,25 +4970,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1sjw7&amp;q=XNYS%3aF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="12">
+  <rv s="11">
     <v>en-US</v>
     <v>a1sjw7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>55</v>
+    <v>49</v>
     <v>FORD MOTOR COMPANY (XNYS:F)</v>
     <v>51</v>
-    <v>56</v>
+    <v>55</v>
     <v>Finance</v>
-    <v>57</v>
+    <v>48</v>
     <v>15.42</v>
     <v>9.6300000000000008</v>
-    <v>1.6211</v>
-    <v>0.315</v>
-    <v>9.452000000000001E-4</v>
-    <v>3.0701999999999997E-2</v>
-    <v>0.01</v>
+    <v>1.6391</v>
+    <v>-1.4999999999999999E-2</v>
+    <v>-1.24E-3</v>
     <v>USD</v>
     <v>Ford Motor Company is an automobile company. The Company designs, manufactures, markets, and services a full line of electrified passenger and commercial vehicles, such as Ford trucks, utility vehicles, vans, and cars, and Lincoln luxury vehicles. The Company's segments include Ford Blue, Ford Model e, Ford Pro, Ford Next and Ford Credit. Its Ford Blue segment is engaged in developing gas-powered and hybrid vehicles. Its Ford Model e segment is engaged in developing electronic vehicles (EVs) along with embedded software that defines always-on digital experiences for all customers. Its Ford Pro segment is engaged in helping commercial customers transform and expand their businesses with vehicles and services tailored to their needs. Ford Next segment is engaged in pursuing mobility solutions and provides financial services through Ford Motor Credit Company. The Ford Credit segment is primarily engaged in providing vehicle-related financing and leasing activities.</v>
     <v>173000</v>
@@ -6562,26 +4994,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One American Road, DEARBORN, MI, 48126-2701 US</v>
-    <v>10.6</v>
+    <v>12.0899</v>
     <v>179</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45262.041384988283</v>
+    <v>45324.605566284372</v>
     <v>180</v>
-    <v>10.220000000000001</v>
-    <v>42351260000</v>
+    <v>12.01</v>
+    <v>48375699090</v>
     <v>FORD MOTOR COMPANY</v>
     <v>FORD MOTOR COMPANY</v>
-    <v>10.29</v>
-    <v>6.6959</v>
-    <v>10.26</v>
-    <v>10.574999999999999</v>
-    <v>10.59</v>
+    <v>12.03</v>
+    <v>7.8967000000000001</v>
+    <v>12.1</v>
+    <v>12.085000000000001</v>
     <v>4002954000</v>
     <v>F</v>
     <v>FORD MOTOR COMPANY (XNYS:F)</v>
-    <v>61619835</v>
-    <v>60846324</v>
+    <v>1971650</v>
+    <v>52272649</v>
     <v>1919</v>
   </rv>
   <rv s="8">
@@ -6602,40 +5033,37 @@
     <v>46</v>
     <v>47</v>
     <v>Finance</v>
-    <v>57</v>
-    <v>142.38</v>
-    <v>85.57</v>
-    <v>1.0539000000000001</v>
-    <v>-0.6</v>
-    <v>1.4249999999999998E-3</v>
-    <v>-4.4800000000000005E-3</v>
-    <v>0.19</v>
+    <v>48</v>
+    <v>155.19999999999999</v>
+    <v>88.86</v>
+    <v>1.0620000000000001</v>
+    <v>-3.25</v>
+    <v>-2.2772999999999998E-2</v>
     <v>USD</v>
-    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
-    <v>182381</v>
+    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
+    <v>182502</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>133.5</v>
+    <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
+    <v>141.30000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041643842189</v>
+    <v>45324.605564803125</v>
     <v>183</v>
-    <v>132.15170000000001</v>
-    <v>1666703000000</v>
+    <v>139.31</v>
+    <v>1763832000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>133.32</v>
-    <v>25.7012</v>
-    <v>133.91999999999999</v>
-    <v>133.32</v>
-    <v>133.51</v>
-    <v>12516000000</v>
+    <v>141.05000000000001</v>
+    <v>24.594899999999999</v>
+    <v>142.71</v>
+    <v>139.46</v>
+    <v>12433000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>24267987</v>
-    <v>20890668</v>
+    <v>3024777</v>
+    <v>19947201</v>
     <v>2015</v>
   </rv>
   <rv s="8">
@@ -6645,7 +5073,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <s t="_linkedentity2">
     <k n="%EntityServiceId" t="i"/>
     <k n="_DisplayString" t="s"/>
@@ -6820,9 +5248,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -6843,7 +5269,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -6911,60 +5336,12 @@
     <k n="Volume average"/>
     <k n="Year incorporated"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Image" t="r"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="5">
+  <spbArrays count="4">
     <a count="63">
       <v t="s">%EntityServiceId</v>
       <v t="s">%IsRefreshable</v>
@@ -7096,7 +5473,7 @@
       <v t="s">Image</v>
       <v t="s">Description</v>
     </a>
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -7107,16 +5484,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -7188,56 +5562,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">Image</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="58">
+  <spbData count="56">
     <spb s="0">
       <v xml:space="preserve">data.worldbank.org	</v>
       <v xml:space="preserve">	</v>
@@ -7719,19 +6045,13 @@
       <v>6</v>
       <v>5</v>
       <v>4</v>
-      <v>9</v>
-      <v>9</v>
-      <v>11</v>
     </spb>
     <spb s="11">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="2">
       <v>3</v>
@@ -7781,12 +6101,7 @@
     <spb s="16">
       <v>Powered by Refinitiv</v>
     </spb>
-    <spb s="2">
-      <v>4</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="17">
+    <spb s="14">
       <v>9</v>
       <v>7</v>
       <v>7</v>
@@ -7808,26 +6123,13 @@
       <v>6</v>
       <v>5</v>
       <v>4</v>
-      <v>9</v>
-      <v>9</v>
-      <v>11</v>
-    </spb>
-    <spb s="11">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="18">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="17">
   <s>
     <k n="SourceText" t="s"/>
     <k n="LicenseText" t="s"/>
@@ -7971,9 +6273,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -7981,9 +6280,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -8027,32 +6323,6 @@
   </s>
   <s>
     <k n="name" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Image" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -10301,7 +8571,7 @@
       </c>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">_FV(Table2[[#This Row],[company]],"Headquarters")</f>
-        <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
+        <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
       </c>
     </row>
   </sheetData>
